--- a/Neural_Network/Conv_Nets/Expenses01.xlsx
+++ b/Neural_Network/Conv_Nets/Expenses01.xlsx
@@ -25,7 +25,7 @@
     <author> </author>
   </authors>
   <commentList>
-    <comment ref="H4" authorId="0">
+    <comment ref="C11" authorId="0">
       <text>
         <r>
           <rPr>
@@ -33,13 +33,12 @@
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
-            <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">Training more smoooth</t>
+          <t xml:space="preserve">The samples with lowest values are better approximated</t>
         </r>
       </text>
     </comment>
-    <comment ref="H5" authorId="0">
+    <comment ref="H9" authorId="0">
       <text>
         <r>
           <rPr>
@@ -47,13 +46,12 @@
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
-            <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">Decreases too much and cant get out again</t>
+          <t xml:space="preserve">Training more smoooth</t>
         </r>
       </text>
     </comment>
-    <comment ref="H6" authorId="0">
+    <comment ref="H10" authorId="0">
       <text>
         <r>
           <rPr>
@@ -61,7 +59,19 @@
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
-            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Decreases too much and cant get out again</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H11" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">Nach 1000 Epoch...trainig instabil</t>
         </r>
@@ -72,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="27">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -107,6 +117,9 @@
     <t xml:space="preserve">test_set</t>
   </si>
   <si>
+    <t xml:space="preserve"># code var</t>
+  </si>
+  <si>
     <t xml:space="preserve">Tanh</t>
   </si>
   <si>
@@ -125,6 +138,21 @@
     <t xml:space="preserve">yes</t>
   </si>
   <si>
+    <t xml:space="preserve">1a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1e</t>
+  </si>
+  <si>
     <t xml:space="preserve">ELU</t>
   </si>
   <si>
@@ -132,6 +160,9 @@
   </si>
   <si>
     <t xml:space="preserve">Plateau</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SiLU</t>
   </si>
 </sst>
 </file>
@@ -147,7 +178,6 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -207,9 +237,13 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -229,13 +263,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:L1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F20" activeCellId="0" sqref="F20"/>
+      <selection pane="topLeft" activeCell="B21" activeCellId="0" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.35"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.54"/>
@@ -243,7 +277,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="12.01"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
@@ -277,31 +311,34 @@
       <c r="K1" s="0" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>0.027</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F2" s="0" t="n">
         <v>4</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I2" s="0" t="n">
         <v>6000</v>
@@ -310,166 +347,416 @@
         <v>1</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="L2" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="0" t="n">
+        <v>6000</v>
+      </c>
+      <c r="J3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K3" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="L3" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" s="0" t="n">
+        <v>6000</v>
+      </c>
+      <c r="J4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K4" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="L4" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" s="0" t="n">
+        <v>6000</v>
+      </c>
+      <c r="J5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="L5" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" s="0" t="n">
+        <v>6000</v>
+      </c>
+      <c r="J6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K6" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="L6" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="I7" s="0" t="n">
+        <v>6000</v>
+      </c>
+      <c r="J7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K7" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="L7" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="0" t="n">
+      <c r="B8" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="0" t="n">
         <v>0.0295</v>
       </c>
-      <c r="E3" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="I3" s="0" t="n">
-        <v>6000</v>
-      </c>
-      <c r="J3" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="0" t="n">
+      <c r="E8" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8" s="0" t="n">
+        <v>6000</v>
+      </c>
+      <c r="J8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="L8" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="0" t="n">
         <v>0.037</v>
       </c>
-      <c r="E4" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="I4" s="0" t="n">
-        <v>6000</v>
-      </c>
-      <c r="J4" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="0" t="n">
+      <c r="E9" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="G9" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="I9" s="0" t="n">
+        <v>6000</v>
+      </c>
+      <c r="J9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K9" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="L9" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="0" t="n">
         <v>0.031</v>
       </c>
-      <c r="E5" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="G5" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="H5" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="I5" s="0" t="n">
-        <v>6000</v>
-      </c>
-      <c r="J5" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
+      <c r="E10" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="G10" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="I10" s="0" t="n">
+        <v>6000</v>
+      </c>
+      <c r="J10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K10" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="L10" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="G6" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="H6" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="I6" s="0" t="n">
-        <v>6000</v>
-      </c>
-      <c r="J6" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
+      <c r="B11" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="G11" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="I11" s="0" t="n">
+        <v>6000</v>
+      </c>
+      <c r="J11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K11" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="L11" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="G7" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="H7" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="I7" s="0" t="n">
-        <v>6000</v>
-      </c>
-      <c r="J7" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K7" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
+      <c r="B12" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>0.024</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="G12" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H12" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="I12" s="0" t="n">
+        <v>6000</v>
+      </c>
+      <c r="J12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K12" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="L12" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>0.031</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="G13" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H13" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="I13" s="0" t="n">
+        <v>6000</v>
+      </c>
+      <c r="J13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K13" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="L13" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
